--- a/Data/sprague data/sprague-uBiomeOct2014.xlsx
+++ b/Data/sprague data/sprague-uBiomeOct2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Sprague\OneDrive\Projects\Programming\uBiome\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Sprague\OneDrive\Projects\uBiome\Data\sprague data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sprague-uBiomeOct2014'!$A$1:$I$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sprague-uBiomeOct2014'!$A$1:$J$323</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="668">
   <si>
     <t>taxon</t>
   </si>
@@ -2024,12 +2024,18 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Count %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2508,10 +2514,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -3750,22 +3757,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I323"/>
+  <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G298"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3781,17 +3789,20 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3810,17 +3821,21 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3">
+        <f>E2/1000000</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3839,17 +3854,21 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="0">E3/1000000</f>
+        <v>0.58449799999999996</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3868,17 +3887,21 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56495399999999996</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3897,17 +3920,21 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56486599999999998</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3926,17 +3953,21 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27488600000000002</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3955,17 +3986,21 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27484799999999998</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3984,17 +4019,21 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.274696</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4013,17 +4052,21 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27445599999999998</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -4042,17 +4085,21 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21737799999999999</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4071,17 +4118,21 @@
       <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21507699999999999</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -4100,17 +4151,21 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17022300000000001</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4129,17 +4184,21 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.160388</v>
+      </c>
+      <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4158,17 +4217,21 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13105900000000001</v>
+      </c>
+      <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -4187,17 +4250,21 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3663999999999997E-2</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -4216,17 +4283,21 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3549999999999994E-2</v>
+      </c>
+      <c r="H16" t="s">
         <v>49</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4245,17 +4316,21 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3511999999999998E-2</v>
+      </c>
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>37</v>
       </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -4274,17 +4349,21 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2664999999999997E-2</v>
+      </c>
+      <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4303,17 +4382,21 @@
       <c r="F19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5319999999999998E-2</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4332,17 +4415,21 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1326000000000001E-2</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>37</v>
       </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4361,17 +4448,21 @@
       <c r="F21" t="s">
         <v>9</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5624000000000002E-2</v>
+      </c>
+      <c r="H21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4390,17 +4481,21 @@
       <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5624000000000002E-2</v>
+      </c>
+      <c r="H22" t="s">
         <v>59</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4419,17 +4514,21 @@
       <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.5004999999999993E-2</v>
+      </c>
+      <c r="H23" t="s">
         <v>63</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -4448,17 +4547,21 @@
       <c r="F24" t="s">
         <v>9</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0111999999999999E-2</v>
+      </c>
+      <c r="H24" t="s">
         <v>66</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -4477,17 +4580,21 @@
       <c r="F25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0111999999999999E-2</v>
+      </c>
+      <c r="H25" t="s">
         <v>68</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -4506,17 +4613,21 @@
       <c r="F26" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9177E-2</v>
+      </c>
+      <c r="H26" t="s">
         <v>70</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>34</v>
       </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -4535,17 +4646,21 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>5.9177E-2</v>
+      </c>
+      <c r="H27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>21</v>
       </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -4564,17 +4679,21 @@
       <c r="F28" t="s">
         <v>9</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8747000000000001E-2</v>
+      </c>
+      <c r="H28" t="s">
         <v>74</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -4593,17 +4712,21 @@
       <c r="F29" t="s">
         <v>9</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7128999999999997E-2</v>
+      </c>
+      <c r="H29" t="s">
         <v>76</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>42</v>
       </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -4622,17 +4745,21 @@
       <c r="F30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>4.0289999999999999E-2</v>
+      </c>
+      <c r="H30" t="s">
         <v>78</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>34</v>
       </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -4651,17 +4778,21 @@
       <c r="F31" t="s">
         <v>9</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8532999999999998E-2</v>
+      </c>
+      <c r="H31" t="s">
         <v>80</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>42</v>
       </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -4680,17 +4811,21 @@
       <c r="F32" t="s">
         <v>9</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8077E-2</v>
+      </c>
+      <c r="H32" t="s">
         <v>82</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>37</v>
       </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -4709,17 +4844,21 @@
       <c r="F33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7533999999999998E-2</v>
+      </c>
+      <c r="H33" t="s">
         <v>84</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>42</v>
       </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -4738,17 +4877,21 @@
       <c r="F34" t="s">
         <v>9</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5852000000000002E-2</v>
+      </c>
+      <c r="H34" t="s">
         <v>86</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -4767,17 +4910,21 @@
       <c r="F35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5789000000000001E-2</v>
+      </c>
+      <c r="H35" t="s">
         <v>88</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>37</v>
       </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -4796,17 +4943,21 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7673E-2</v>
+      </c>
+      <c r="H36" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>42</v>
       </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4825,17 +4976,21 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9001000000000001E-2</v>
+      </c>
+      <c r="H37" t="s">
         <v>92</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>42</v>
       </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -4854,17 +5009,21 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7623E-2</v>
+      </c>
+      <c r="H38" t="s">
         <v>94</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>42</v>
       </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -4883,17 +5042,21 @@
       <c r="F39" t="s">
         <v>9</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6889999999999999E-2</v>
+      </c>
+      <c r="H39" t="s">
         <v>96</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>34</v>
       </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -4912,17 +5075,21 @@
       <c r="F40" t="s">
         <v>9</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>1.67E-2</v>
+      </c>
+      <c r="H40" t="s">
         <v>98</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>37</v>
       </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -4941,17 +5108,21 @@
       <c r="F41" t="s">
         <v>9</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6244999999999999E-2</v>
+      </c>
+      <c r="H41" t="s">
         <v>100</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>42</v>
       </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -4970,17 +5141,21 @@
       <c r="F42" t="s">
         <v>9</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5169999999999999E-2</v>
+      </c>
+      <c r="H42" t="s">
         <v>102</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>42</v>
       </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -4999,17 +5174,21 @@
       <c r="F43" t="s">
         <v>9</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4892000000000001E-2</v>
+      </c>
+      <c r="H43" t="s">
         <v>104</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>37</v>
       </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -5028,17 +5207,21 @@
       <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4589E-2</v>
+      </c>
+      <c r="H44" t="s">
         <v>106</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>42</v>
       </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>107</v>
       </c>
@@ -5057,17 +5240,21 @@
       <c r="F45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3186E-2</v>
+      </c>
+      <c r="H45" t="s">
         <v>108</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>42</v>
       </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -5086,17 +5273,21 @@
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2515E-2</v>
+      </c>
+      <c r="H46" t="s">
         <v>110</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>37</v>
       </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>111</v>
       </c>
@@ -5115,17 +5306,21 @@
       <c r="F47" t="s">
         <v>9</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2338E-2</v>
+      </c>
+      <c r="H47" t="s">
         <v>112</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>37</v>
       </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -5144,17 +5339,21 @@
       <c r="F48" t="s">
         <v>9</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1441E-2</v>
+      </c>
+      <c r="H48" t="s">
         <v>114</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -5173,17 +5372,21 @@
       <c r="F49" t="s">
         <v>9</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1239000000000001E-2</v>
+      </c>
+      <c r="H49" t="s">
         <v>116</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>21</v>
       </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -5202,17 +5405,21 @@
       <c r="F50" t="s">
         <v>9</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0923E-2</v>
+      </c>
+      <c r="H50" t="s">
         <v>118</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>34</v>
       </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -5231,17 +5438,21 @@
       <c r="F51" t="s">
         <v>9</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0038E-2</v>
+      </c>
+      <c r="H51" t="s">
         <v>120</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>37</v>
       </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -5260,17 +5471,21 @@
       <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0038E-2</v>
+      </c>
+      <c r="H52" t="s">
         <v>122</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>34</v>
       </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -5289,17 +5504,21 @@
       <c r="F53" t="s">
         <v>9</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0012E-2</v>
+      </c>
+      <c r="H53" t="s">
         <v>124</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>42</v>
       </c>
-      <c r="I53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -5318,17 +5537,21 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3170000000000006E-3</v>
+      </c>
+      <c r="H54" t="s">
         <v>126</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>42</v>
       </c>
-      <c r="I54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -5347,17 +5570,21 @@
       <c r="F55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2919999999999999E-3</v>
+      </c>
+      <c r="H55" t="s">
         <v>128</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>42</v>
       </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -5376,17 +5603,21 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8749999999999992E-3</v>
+      </c>
+      <c r="H56" t="s">
         <v>130</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -5405,17 +5636,21 @@
       <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7860000000000004E-3</v>
+      </c>
+      <c r="H57" t="s">
         <v>132</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>34</v>
       </c>
-      <c r="I57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -5434,17 +5669,21 @@
       <c r="F58" t="s">
         <v>9</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7609999999999997E-3</v>
+      </c>
+      <c r="H58" t="s">
         <v>134</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>37</v>
       </c>
-      <c r="I58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -5463,17 +5702,21 @@
       <c r="F59" t="s">
         <v>9</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4950000000000008E-3</v>
+      </c>
+      <c r="H59" t="s">
         <v>136</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>42</v>
       </c>
-      <c r="I59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -5492,17 +5735,21 @@
       <c r="F60" t="s">
         <v>9</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="H60" t="s">
         <v>138</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>37</v>
       </c>
-      <c r="I60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -5521,17 +5768,21 @@
       <c r="F61" t="s">
         <v>9</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2430000000000003E-3</v>
+      </c>
+      <c r="H61" t="s">
         <v>140</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>42</v>
       </c>
-      <c r="I61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -5550,17 +5801,21 @@
       <c r="F62" t="s">
         <v>9</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0020000000000004E-3</v>
+      </c>
+      <c r="H62" t="s">
         <v>142</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>37</v>
       </c>
-      <c r="I62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -5579,17 +5834,21 @@
       <c r="F63" t="s">
         <v>9</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3">
+        <f t="shared" si="0"/>
+        <v>7.9139999999999992E-3</v>
+      </c>
+      <c r="H63" t="s">
         <v>144</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>42</v>
       </c>
-      <c r="I63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -5608,17 +5867,21 @@
       <c r="F64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8250000000000004E-3</v>
+      </c>
+      <c r="H64" t="s">
         <v>146</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>37</v>
       </c>
-      <c r="I64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -5637,17 +5900,21 @@
       <c r="F65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7120000000000001E-3</v>
+      </c>
+      <c r="H65" t="s">
         <v>148</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>42</v>
       </c>
-      <c r="I65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -5666,17 +5933,21 @@
       <c r="F66" t="s">
         <v>9</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6990000000000001E-3</v>
+      </c>
+      <c r="H66" t="s">
         <v>150</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>18</v>
       </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>151</v>
       </c>
@@ -5695,17 +5966,21 @@
       <c r="F67" t="s">
         <v>9</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G130" si="1">E67/1000000</f>
+        <v>7.6990000000000001E-3</v>
+      </c>
+      <c r="H67" t="s">
         <v>152</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>14</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -5724,17 +5999,21 @@
       <c r="F68" t="s">
         <v>9</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6990000000000001E-3</v>
+      </c>
+      <c r="H68" t="s">
         <v>155</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>21</v>
       </c>
-      <c r="I68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -5753,17 +6032,21 @@
       <c r="F69" t="s">
         <v>9</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6990000000000001E-3</v>
+      </c>
+      <c r="H69" t="s">
         <v>157</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>34</v>
       </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -5782,17 +6065,21 @@
       <c r="F70" t="s">
         <v>9</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3">
+        <f t="shared" si="1"/>
+        <v>7.6480000000000003E-3</v>
+      </c>
+      <c r="H70" t="s">
         <v>159</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>37</v>
       </c>
-      <c r="I70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -5811,17 +6098,21 @@
       <c r="F71" t="s">
         <v>9</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5469999999999999E-3</v>
+      </c>
+      <c r="H71" t="s">
         <v>161</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>47</v>
       </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -5840,17 +6131,21 @@
       <c r="F72" t="s">
         <v>9</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3">
+        <f t="shared" si="1"/>
+        <v>7.522E-3</v>
+      </c>
+      <c r="H72" t="s">
         <v>163</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>42</v>
       </c>
-      <c r="I72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -5869,17 +6164,21 @@
       <c r="F73" t="s">
         <v>9</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="3">
+        <f t="shared" si="1"/>
+        <v>7.522E-3</v>
+      </c>
+      <c r="H73" t="s">
         <v>165</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>47</v>
       </c>
-      <c r="I73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -5898,17 +6197,21 @@
       <c r="F74" t="s">
         <v>9</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8649999999999996E-3</v>
+      </c>
+      <c r="H74" t="s">
         <v>167</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>18</v>
       </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -5927,17 +6230,21 @@
       <c r="F75" t="s">
         <v>9</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8649999999999996E-3</v>
+      </c>
+      <c r="H75" t="s">
         <v>169</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>21</v>
       </c>
-      <c r="I75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -5956,17 +6263,21 @@
       <c r="F76" t="s">
         <v>9</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4219999999999998E-3</v>
+      </c>
+      <c r="H76" t="s">
         <v>171</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>37</v>
       </c>
-      <c r="I76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -5985,17 +6296,21 @@
       <c r="F77" t="s">
         <v>9</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0809999999999996E-3</v>
+      </c>
+      <c r="H77" t="s">
         <v>173</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>42</v>
       </c>
-      <c r="I77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -6014,17 +6329,21 @@
       <c r="F78" t="s">
         <v>9</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9670000000000001E-3</v>
+      </c>
+      <c r="H78" t="s">
         <v>175</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>34</v>
       </c>
-      <c r="I78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
@@ -6043,17 +6362,21 @@
       <c r="F79" t="s">
         <v>9</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="3">
+        <f t="shared" si="1"/>
+        <v>5.9290000000000002E-3</v>
+      </c>
+      <c r="H79" t="s">
         <v>177</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>42</v>
       </c>
-      <c r="I79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>178</v>
       </c>
@@ -6072,17 +6395,21 @@
       <c r="F80" t="s">
         <v>9</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-3</v>
+      </c>
+      <c r="H80" t="s">
         <v>179</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>21</v>
       </c>
-      <c r="I80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>180</v>
       </c>
@@ -6101,17 +6428,21 @@
       <c r="F81" t="s">
         <v>9</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="3">
+        <f t="shared" si="1"/>
+        <v>5.803E-3</v>
+      </c>
+      <c r="H81" t="s">
         <v>181</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>42</v>
       </c>
-      <c r="I81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>182</v>
       </c>
@@ -6130,17 +6461,21 @@
       <c r="F82" t="s">
         <v>9</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="3">
+        <f t="shared" si="1"/>
+        <v>5.79E-3</v>
+      </c>
+      <c r="H82" t="s">
         <v>183</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>42</v>
       </c>
-      <c r="I82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -6159,17 +6494,21 @@
       <c r="F83" t="s">
         <v>9</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6129999999999999E-3</v>
+      </c>
+      <c r="H83" t="s">
         <v>185</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>186</v>
       </c>
-      <c r="I83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>187</v>
       </c>
@@ -6188,17 +6527,21 @@
       <c r="F84" t="s">
         <v>9</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6129999999999999E-3</v>
+      </c>
+      <c r="H84" t="s">
         <v>188</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>34</v>
       </c>
-      <c r="I84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -6217,17 +6560,21 @@
       <c r="F85" t="s">
         <v>9</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6129999999999999E-3</v>
+      </c>
+      <c r="H85" t="s">
         <v>190</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>37</v>
       </c>
-      <c r="I85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -6246,17 +6593,21 @@
       <c r="F86" t="s">
         <v>9</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H86" t="s">
         <v>192</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>37</v>
       </c>
-      <c r="I86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>193</v>
       </c>
@@ -6275,17 +6626,21 @@
       <c r="F87" t="s">
         <v>9</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5880000000000001E-3</v>
+      </c>
+      <c r="H87" t="s">
         <v>194</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>42</v>
       </c>
-      <c r="I87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>195</v>
       </c>
@@ -6304,17 +6659,21 @@
       <c r="F88" t="s">
         <v>9</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4359999999999999E-3</v>
+      </c>
+      <c r="H88" t="s">
         <v>196</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>42</v>
       </c>
-      <c r="I88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -6333,17 +6692,21 @@
       <c r="F89" t="s">
         <v>9</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0959999999999998E-3</v>
+      </c>
+      <c r="H89" t="s">
         <v>198</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>37</v>
       </c>
-      <c r="I89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>199</v>
       </c>
@@ -6362,17 +6725,21 @@
       <c r="F90" t="s">
         <v>9</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="3">
+        <f t="shared" si="1"/>
+        <v>4.045E-3</v>
+      </c>
+      <c r="H90" t="s">
         <v>200</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>42</v>
       </c>
-      <c r="I90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>201</v>
       </c>
@@ -6391,17 +6758,21 @@
       <c r="F91" t="s">
         <v>9</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="3">
+        <f t="shared" si="1"/>
+        <v>4.045E-3</v>
+      </c>
+      <c r="H91" t="s">
         <v>202</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>37</v>
       </c>
-      <c r="I91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>203</v>
       </c>
@@ -6420,17 +6791,21 @@
       <c r="F92" t="s">
         <v>9</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="3">
+        <f t="shared" si="1"/>
+        <v>4.0070000000000001E-3</v>
+      </c>
+      <c r="H92" t="s">
         <v>204</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>42</v>
       </c>
-      <c r="I92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>205</v>
       </c>
@@ -6449,17 +6824,21 @@
       <c r="F93" t="s">
         <v>9</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8809999999999999E-3</v>
+      </c>
+      <c r="H93" t="s">
         <v>206</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>37</v>
       </c>
-      <c r="I93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -6478,17 +6857,21 @@
       <c r="F94" t="s">
         <v>9</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7290000000000001E-3</v>
+      </c>
+      <c r="H94" t="s">
         <v>208</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>42</v>
       </c>
-      <c r="I94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -6507,17 +6890,21 @@
       <c r="F95" t="s">
         <v>9</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="3">
+        <f t="shared" si="1"/>
+        <v>3.666E-3</v>
+      </c>
+      <c r="H95" t="s">
         <v>210</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>42</v>
       </c>
-      <c r="I95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>211</v>
       </c>
@@ -6536,17 +6923,21 @@
       <c r="F96" t="s">
         <v>9</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6280000000000001E-3</v>
+      </c>
+      <c r="H96" t="s">
         <v>212</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>42</v>
       </c>
-      <c r="I96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -6565,17 +6956,21 @@
       <c r="F97" t="s">
         <v>9</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="H97" t="s">
         <v>214</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>14</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>216</v>
       </c>
@@ -6594,17 +6989,21 @@
       <c r="F98" t="s">
         <v>9</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1099999999999999E-3</v>
+      </c>
+      <c r="H98" t="s">
         <v>217</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>47</v>
       </c>
-      <c r="I98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -6623,17 +7022,21 @@
       <c r="F99" t="s">
         <v>9</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="3">
+        <f t="shared" si="1"/>
+        <v>2.996E-3</v>
+      </c>
+      <c r="H99" t="s">
         <v>219</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>47</v>
       </c>
-      <c r="I99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -6652,17 +7055,21 @@
       <c r="F100" t="s">
         <v>9</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="3">
+        <f t="shared" si="1"/>
+        <v>2.996E-3</v>
+      </c>
+      <c r="H100" t="s">
         <v>221</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>42</v>
       </c>
-      <c r="I100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>222</v>
       </c>
@@ -6681,17 +7088,21 @@
       <c r="F101" t="s">
         <v>9</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="H101" t="s">
         <v>223</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>42</v>
       </c>
-      <c r="I101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -6710,17 +7121,21 @@
       <c r="F102" t="s">
         <v>9</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7049999999999999E-3</v>
+      </c>
+      <c r="H102" t="s">
         <v>225</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>37</v>
       </c>
-      <c r="I102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>226</v>
       </c>
@@ -6739,17 +7154,21 @@
       <c r="F103" t="s">
         <v>9</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9469999999999999E-3</v>
+      </c>
+      <c r="H103" t="s">
         <v>227</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>228</v>
       </c>
-      <c r="I103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>229</v>
       </c>
@@ -6768,17 +7187,21 @@
       <c r="F104" t="s">
         <v>9</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9220000000000001E-3</v>
+      </c>
+      <c r="H104" t="s">
         <v>230</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>18</v>
       </c>
-      <c r="I104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>231</v>
       </c>
@@ -6797,17 +7220,21 @@
       <c r="F105" t="s">
         <v>9</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8959999999999999E-3</v>
+      </c>
+      <c r="H105" t="s">
         <v>232</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>21</v>
       </c>
-      <c r="I105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>233</v>
       </c>
@@ -6826,17 +7253,21 @@
       <c r="F106" t="s">
         <v>9</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8959999999999999E-3</v>
+      </c>
+      <c r="H106" t="s">
         <v>234</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>34</v>
       </c>
-      <c r="I106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>235</v>
       </c>
@@ -6855,17 +7286,21 @@
       <c r="F107" t="s">
         <v>9</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8580000000000001E-3</v>
+      </c>
+      <c r="H107" t="s">
         <v>236</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>42</v>
       </c>
-      <c r="I107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>237</v>
       </c>
@@ -6884,17 +7319,21 @@
       <c r="F108" t="s">
         <v>9</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="3">
+        <f t="shared" si="1"/>
+        <v>1.833E-3</v>
+      </c>
+      <c r="H108" t="s">
         <v>238</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>42</v>
       </c>
-      <c r="I108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -6913,17 +7352,21 @@
       <c r="F109" t="s">
         <v>9</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="3">
+        <f t="shared" si="1"/>
+        <v>1.833E-3</v>
+      </c>
+      <c r="H109" t="s">
         <v>240</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>37</v>
       </c>
-      <c r="I109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>241</v>
       </c>
@@ -6942,17 +7385,21 @@
       <c r="F110" t="s">
         <v>9</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7949999999999999E-3</v>
+      </c>
+      <c r="H110" t="s">
         <v>242</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>42</v>
       </c>
-      <c r="I110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>243</v>
       </c>
@@ -6971,17 +7418,21 @@
       <c r="F111" t="s">
         <v>9</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="3">
+        <f t="shared" si="1"/>
+        <v>1.707E-3</v>
+      </c>
+      <c r="H111" t="s">
         <v>244</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>42</v>
       </c>
-      <c r="I111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>245</v>
       </c>
@@ -7000,17 +7451,21 @@
       <c r="F112" t="s">
         <v>9</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="H112" t="s">
         <v>246</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>42</v>
       </c>
-      <c r="I112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>247</v>
       </c>
@@ -7029,17 +7484,21 @@
       <c r="F113" t="s">
         <v>9</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6559999999999999E-3</v>
+      </c>
+      <c r="H113" t="s">
         <v>248</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>37</v>
       </c>
-      <c r="I113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>249</v>
       </c>
@@ -7058,17 +7517,21 @@
       <c r="F114" t="s">
         <v>9</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H114" t="s">
         <v>250</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>47</v>
       </c>
-      <c r="I114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -7087,17 +7550,21 @@
       <c r="F115" t="s">
         <v>9</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H115" t="s">
         <v>252</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>14</v>
       </c>
-      <c r="I115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>253</v>
       </c>
@@ -7116,17 +7583,21 @@
       <c r="F116" t="s">
         <v>9</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H116" t="s">
         <v>254</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>37</v>
       </c>
-      <c r="I116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>255</v>
       </c>
@@ -7145,17 +7616,21 @@
       <c r="F117" t="s">
         <v>9</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H117" t="s">
         <v>256</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>34</v>
       </c>
-      <c r="I117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -7174,17 +7649,21 @@
       <c r="F118" t="s">
         <v>9</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H118" t="s">
         <v>258</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>34</v>
       </c>
-      <c r="I118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>259</v>
       </c>
@@ -7203,17 +7682,21 @@
       <c r="F119" t="s">
         <v>9</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="3">
+        <f t="shared" si="1"/>
+        <v>1.176E-3</v>
+      </c>
+      <c r="H119" t="s">
         <v>260</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>18</v>
       </c>
-      <c r="I119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>261</v>
       </c>
@@ -7232,17 +7715,21 @@
       <c r="F120" t="s">
         <v>9</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="3">
+        <f t="shared" si="1"/>
+        <v>1.15E-3</v>
+      </c>
+      <c r="H120" t="s">
         <v>262</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>47</v>
       </c>
-      <c r="I120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>263</v>
       </c>
@@ -7261,17 +7748,21 @@
       <c r="F121" t="s">
         <v>9</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="3">
+        <f t="shared" si="1"/>
+        <v>1.15E-3</v>
+      </c>
+      <c r="H121" t="s">
         <v>264</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>42</v>
       </c>
-      <c r="I121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>265</v>
       </c>
@@ -7290,17 +7781,21 @@
       <c r="F122" t="s">
         <v>9</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1379999999999999E-3</v>
+      </c>
+      <c r="H122" t="s">
         <v>266</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>21</v>
       </c>
-      <c r="I122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>267</v>
       </c>
@@ -7319,17 +7814,21 @@
       <c r="F123" t="s">
         <v>9</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1379999999999999E-3</v>
+      </c>
+      <c r="H123" t="s">
         <v>268</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>18</v>
       </c>
-      <c r="I123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>269</v>
       </c>
@@ -7348,17 +7847,21 @@
       <c r="F124" t="s">
         <v>9</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1379999999999999E-3</v>
+      </c>
+      <c r="H124" t="s">
         <v>270</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>34</v>
       </c>
-      <c r="I124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>271</v>
       </c>
@@ -7377,17 +7880,21 @@
       <c r="F125" t="s">
         <v>9</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="3">
+        <f t="shared" si="1"/>
+        <v>1.075E-3</v>
+      </c>
+      <c r="H125" t="s">
         <v>272</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>42</v>
       </c>
-      <c r="I125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>273</v>
       </c>
@@ -7406,17 +7913,21 @@
       <c r="F126" t="s">
         <v>9</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4799999999999995E-4</v>
+      </c>
+      <c r="H126" t="s">
         <v>274</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>42</v>
       </c>
-      <c r="I126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -7435,17 +7946,21 @@
       <c r="F127" t="s">
         <v>9</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="3">
+        <f t="shared" si="1"/>
+        <v>9.3599999999999998E-4</v>
+      </c>
+      <c r="H127" t="s">
         <v>276</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>42</v>
       </c>
-      <c r="I127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>277</v>
       </c>
@@ -7464,17 +7979,21 @@
       <c r="F128" t="s">
         <v>9</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9800000000000004E-4</v>
+      </c>
+      <c r="H128" t="s">
         <v>278</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>42</v>
       </c>
-      <c r="I128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>279</v>
       </c>
@@ -7493,17 +8012,21 @@
       <c r="F129" t="s">
         <v>9</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8500000000000004E-4</v>
+      </c>
+      <c r="H129" t="s">
         <v>280</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>18</v>
       </c>
-      <c r="I129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>281</v>
       </c>
@@ -7522,17 +8045,21 @@
       <c r="F130" t="s">
         <v>9</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="H130" t="s">
         <v>282</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>34</v>
       </c>
-      <c r="I130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>283</v>
       </c>
@@ -7551,17 +8078,21 @@
       <c r="F131" t="s">
         <v>9</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="3">
+        <f t="shared" ref="G131:G194" si="2">E131/1000000</f>
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="H131" t="s">
         <v>284</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>18</v>
       </c>
-      <c r="I131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>285</v>
       </c>
@@ -7580,17 +8111,21 @@
       <c r="F132" t="s">
         <v>9</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="H132" t="s">
         <v>286</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>14</v>
       </c>
-      <c r="I132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>287</v>
       </c>
@@ -7609,17 +8144,21 @@
       <c r="F133" t="s">
         <v>9</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="H133" t="s">
         <v>288</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>21</v>
       </c>
-      <c r="I133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>289</v>
       </c>
@@ -7638,17 +8177,21 @@
       <c r="F134" t="s">
         <v>9</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="H134" t="s">
         <v>290</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>34</v>
       </c>
-      <c r="I134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -7667,17 +8210,21 @@
       <c r="F135" t="s">
         <v>9</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="H135" t="s">
         <v>292</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>37</v>
       </c>
-      <c r="I135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>293</v>
       </c>
@@ -7696,17 +8243,21 @@
       <c r="F136" t="s">
         <v>9</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="H136" t="s">
         <v>294</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>34</v>
       </c>
-      <c r="I136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -7725,17 +8276,21 @@
       <c r="F137" t="s">
         <v>9</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8300000000000001E-4</v>
+      </c>
+      <c r="H137" t="s">
         <v>296</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>21</v>
       </c>
-      <c r="I137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>297</v>
       </c>
@@ -7754,17 +8309,21 @@
       <c r="F138" t="s">
         <v>9</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4499999999999996E-4</v>
+      </c>
+      <c r="H138" t="s">
         <v>298</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>37</v>
       </c>
-      <c r="I138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>299</v>
       </c>
@@ -7783,17 +8342,21 @@
       <c r="F139" t="s">
         <v>9</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4499999999999996E-4</v>
+      </c>
+      <c r="H139" t="s">
         <v>300</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>42</v>
       </c>
-      <c r="I139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>301</v>
       </c>
@@ -7812,17 +8375,21 @@
       <c r="F140" t="s">
         <v>9</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="3">
+        <f t="shared" si="2"/>
+        <v>6.3199999999999997E-4</v>
+      </c>
+      <c r="H140" t="s">
         <v>302</v>
       </c>
-      <c r="H140" t="s">
+      <c r="I140" t="s">
         <v>34</v>
       </c>
-      <c r="I140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>303</v>
       </c>
@@ -7841,17 +8408,21 @@
       <c r="F141" t="s">
         <v>9</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="3">
+        <f t="shared" si="2"/>
+        <v>6.3199999999999997E-4</v>
+      </c>
+      <c r="H141" t="s">
         <v>304</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>37</v>
       </c>
-      <c r="I141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>305</v>
       </c>
@@ -7870,17 +8441,21 @@
       <c r="F142" t="s">
         <v>9</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6899999999999995E-4</v>
+      </c>
+      <c r="H142" t="s">
         <v>306</v>
       </c>
-      <c r="H142" t="s">
+      <c r="I142" t="s">
         <v>37</v>
       </c>
-      <c r="I142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -7899,17 +8474,21 @@
       <c r="F143" t="s">
         <v>9</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H143" t="s">
         <v>308</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>42</v>
       </c>
-      <c r="I143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>309</v>
       </c>
@@ -7928,17 +8507,21 @@
       <c r="F144" t="s">
         <v>9</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H144" t="s">
         <v>310</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>64</v>
       </c>
-      <c r="I144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>311</v>
       </c>
@@ -7957,17 +8540,21 @@
       <c r="F145" t="s">
         <v>9</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H145" t="s">
         <v>312</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>21</v>
       </c>
-      <c r="I145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>313</v>
       </c>
@@ -7986,17 +8573,21 @@
       <c r="F146" t="s">
         <v>9</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H146" t="s">
         <v>314</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>186</v>
       </c>
-      <c r="I146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>315</v>
       </c>
@@ -8015,17 +8606,21 @@
       <c r="F147" t="s">
         <v>9</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H147" t="s">
         <v>316</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>34</v>
       </c>
-      <c r="I147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>317</v>
       </c>
@@ -8044,17 +8639,21 @@
       <c r="F148" t="s">
         <v>9</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H148" t="s">
         <v>318</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>37</v>
       </c>
-      <c r="I148" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>319</v>
       </c>
@@ -8073,17 +8672,21 @@
       <c r="F149" t="s">
         <v>9</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H149" t="s">
         <v>320</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>21</v>
       </c>
-      <c r="I149" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>321</v>
       </c>
@@ -8102,17 +8705,21 @@
       <c r="F150" t="s">
         <v>9</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H150" t="s">
         <v>322</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>18</v>
       </c>
-      <c r="I150" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>323</v>
       </c>
@@ -8131,17 +8738,21 @@
       <c r="F151" t="s">
         <v>9</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H151" t="s">
         <v>324</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>14</v>
       </c>
-      <c r="I151" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>325</v>
       </c>
@@ -8160,17 +8771,21 @@
       <c r="F152" t="s">
         <v>9</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="3">
+        <f t="shared" si="2"/>
+        <v>5.44E-4</v>
+      </c>
+      <c r="H152" t="s">
         <v>326</v>
       </c>
-      <c r="H152" t="s">
+      <c r="I152" t="s">
         <v>34</v>
       </c>
-      <c r="I152" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>327</v>
       </c>
@@ -8189,17 +8804,21 @@
       <c r="F153" t="s">
         <v>9</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0600000000000005E-4</v>
+      </c>
+      <c r="H153" t="s">
         <v>328</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>37</v>
       </c>
-      <c r="I153" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -8218,17 +8837,21 @@
       <c r="F154" t="s">
         <v>9</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H154" t="s">
         <v>330</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>42</v>
       </c>
-      <c r="I154" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>331</v>
       </c>
@@ -8247,17 +8870,21 @@
       <c r="F155" t="s">
         <v>9</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="H155" t="s">
         <v>332</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>37</v>
       </c>
-      <c r="I155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>333</v>
       </c>
@@ -8276,17 +8903,21 @@
       <c r="F156" t="s">
         <v>9</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="H156" t="s">
         <v>334</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>47</v>
       </c>
-      <c r="I156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>335</v>
       </c>
@@ -8305,17 +8936,21 @@
       <c r="F157" t="s">
         <v>9</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H157" t="s">
         <v>336</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>14</v>
       </c>
-      <c r="I157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>337</v>
       </c>
@@ -8334,17 +8969,21 @@
       <c r="F158" t="s">
         <v>9</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H158" t="s">
         <v>338</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>37</v>
       </c>
-      <c r="I158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>339</v>
       </c>
@@ -8363,17 +9002,21 @@
       <c r="F159" t="s">
         <v>9</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H159" t="s">
         <v>340</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>37</v>
       </c>
-      <c r="I159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>341</v>
       </c>
@@ -8392,17 +9035,21 @@
       <c r="F160" t="s">
         <v>9</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="H160" t="s">
         <v>342</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>18</v>
       </c>
-      <c r="I160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>343</v>
       </c>
@@ -8421,17 +9068,21 @@
       <c r="F161" t="s">
         <v>9</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0499999999999998E-4</v>
+      </c>
+      <c r="H161" t="s">
         <v>344</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>42</v>
       </c>
-      <c r="I161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>345</v>
       </c>
@@ -8450,17 +9101,21 @@
       <c r="F162" t="s">
         <v>9</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9199999999999999E-4</v>
+      </c>
+      <c r="H162" t="s">
         <v>346</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>21</v>
       </c>
-      <c r="I162" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>347</v>
       </c>
@@ -8479,17 +9134,21 @@
       <c r="F163" t="s">
         <v>9</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9199999999999999E-4</v>
+      </c>
+      <c r="H163" t="s">
         <v>348</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>42</v>
       </c>
-      <c r="I163" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>349</v>
       </c>
@@ -8508,17 +9167,21 @@
       <c r="F164" t="s">
         <v>9</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9199999999999999E-4</v>
+      </c>
+      <c r="H164" t="s">
         <v>350</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>18</v>
       </c>
-      <c r="I164" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>351</v>
       </c>
@@ -8537,17 +9200,21 @@
       <c r="F165" t="s">
         <v>9</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="H165" t="s">
         <v>352</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>47</v>
       </c>
-      <c r="I165" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>353</v>
       </c>
@@ -8566,17 +9233,21 @@
       <c r="F166" t="s">
         <v>9</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="H166" t="s">
         <v>354</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>42</v>
       </c>
-      <c r="I166" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>355</v>
       </c>
@@ -8595,17 +9266,21 @@
       <c r="F167" t="s">
         <v>9</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="H167" t="s">
         <v>356</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>37</v>
       </c>
-      <c r="I167" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>357</v>
       </c>
@@ -8624,17 +9299,21 @@
       <c r="F168" t="s">
         <v>9</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="H168" t="s">
         <v>358</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>34</v>
       </c>
-      <c r="I168" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>359</v>
       </c>
@@ -8653,17 +9332,21 @@
       <c r="F169" t="s">
         <v>9</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="H169" t="s">
         <v>360</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>34</v>
       </c>
-      <c r="I169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>361</v>
       </c>
@@ -8682,17 +9365,21 @@
       <c r="F170" t="s">
         <v>9</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4099999999999999E-4</v>
+      </c>
+      <c r="H170" t="s">
         <v>362</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>18</v>
       </c>
-      <c r="I170" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>363</v>
       </c>
@@ -8711,17 +9398,21 @@
       <c r="F171" t="s">
         <v>9</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2899999999999997E-4</v>
+      </c>
+      <c r="H171" t="s">
         <v>364</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>37</v>
       </c>
-      <c r="I171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>365</v>
       </c>
@@ -8740,17 +9431,21 @@
       <c r="F172" t="s">
         <v>9</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2899999999999997E-4</v>
+      </c>
+      <c r="H172" t="s">
         <v>366</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>42</v>
       </c>
-      <c r="I172" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>367</v>
       </c>
@@ -8769,17 +9464,21 @@
       <c r="F173" t="s">
         <v>9</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2899999999999997E-4</v>
+      </c>
+      <c r="H173" t="s">
         <v>368</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>37</v>
       </c>
-      <c r="I173" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>369</v>
       </c>
@@ -8798,17 +9497,21 @@
       <c r="F174" t="s">
         <v>9</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="H174" t="s">
         <v>370</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>42</v>
       </c>
-      <c r="I174" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>371</v>
       </c>
@@ -8827,17 +9530,21 @@
       <c r="F175" t="s">
         <v>9</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="H175" t="s">
         <v>372</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>42</v>
       </c>
-      <c r="I175" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>373</v>
       </c>
@@ -8856,17 +9563,21 @@
       <c r="F176" t="s">
         <v>9</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="H176" t="s">
         <v>374</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>37</v>
       </c>
-      <c r="I176" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>375</v>
       </c>
@@ -8885,17 +9596,21 @@
       <c r="F177" t="s">
         <v>9</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="H177" t="s">
         <v>376</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>42</v>
       </c>
-      <c r="I177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>377</v>
       </c>
@@ -8914,17 +9629,21 @@
       <c r="F178" t="s">
         <v>9</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="H178" t="s">
         <v>378</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>34</v>
       </c>
-      <c r="I178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>379</v>
       </c>
@@ -8943,17 +9662,21 @@
       <c r="F179" t="s">
         <v>9</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9100000000000003E-4</v>
+      </c>
+      <c r="H179" t="s">
         <v>380</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>21</v>
       </c>
-      <c r="I179" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>381</v>
       </c>
@@ -8972,17 +9695,21 @@
       <c r="F180" t="s">
         <v>9</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="H180" t="s">
         <v>382</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>47</v>
       </c>
-      <c r="I180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>383</v>
       </c>
@@ -9001,17 +9728,21 @@
       <c r="F181" t="s">
         <v>9</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="H181" t="s">
         <v>384</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>34</v>
       </c>
-      <c r="I181" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>385</v>
       </c>
@@ -9030,17 +9761,21 @@
       <c r="F182" t="s">
         <v>9</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="H182" t="s">
         <v>386</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>47</v>
       </c>
-      <c r="I182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>387</v>
       </c>
@@ -9059,17 +9794,21 @@
       <c r="F183" t="s">
         <v>9</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="H183" t="s">
         <v>388</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>42</v>
       </c>
-      <c r="I183" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>389</v>
       </c>
@@ -9088,17 +9827,21 @@
       <c r="F184" t="s">
         <v>9</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H184" t="s">
         <v>390</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>24</v>
       </c>
-      <c r="I184" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>391</v>
       </c>
@@ -9117,17 +9860,21 @@
       <c r="F185" t="s">
         <v>9</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H185" t="s">
         <v>392</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>42</v>
       </c>
-      <c r="I185" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>393</v>
       </c>
@@ -9146,17 +9893,21 @@
       <c r="F186" t="s">
         <v>9</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="H186" t="s">
         <v>394</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>14</v>
       </c>
-      <c r="I186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>395</v>
       </c>
@@ -9175,17 +9926,21 @@
       <c r="F187" t="s">
         <v>9</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="H187" t="s">
         <v>396</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>21</v>
       </c>
-      <c r="I187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>397</v>
       </c>
@@ -9204,17 +9959,21 @@
       <c r="F188" t="s">
         <v>9</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="H188" t="s">
         <v>398</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>18</v>
       </c>
-      <c r="I188" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>399</v>
       </c>
@@ -9233,17 +9992,21 @@
       <c r="F189" t="s">
         <v>9</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="3">
+        <f t="shared" si="2"/>
+        <v>2.02E-4</v>
+      </c>
+      <c r="H189" t="s">
         <v>400</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>42</v>
       </c>
-      <c r="I189" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J189" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>401</v>
       </c>
@@ -9262,17 +10025,21 @@
       <c r="F190" t="s">
         <v>9</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="H190" t="s">
         <v>402</v>
       </c>
-      <c r="H190" t="s">
+      <c r="I190" t="s">
         <v>42</v>
       </c>
-      <c r="I190" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>403</v>
       </c>
@@ -9291,17 +10058,21 @@
       <c r="F191" t="s">
         <v>9</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="H191" t="s">
         <v>404</v>
       </c>
-      <c r="H191" t="s">
+      <c r="I191" t="s">
         <v>37</v>
       </c>
-      <c r="I191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>405</v>
       </c>
@@ -9320,17 +10091,21 @@
       <c r="F192" t="s">
         <v>9</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="H192" t="s">
         <v>406</v>
       </c>
-      <c r="H192" t="s">
+      <c r="I192" t="s">
         <v>21</v>
       </c>
-      <c r="I192" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>407</v>
       </c>
@@ -9349,17 +10124,21 @@
       <c r="F193" t="s">
         <v>9</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="H193" t="s">
         <v>408</v>
       </c>
-      <c r="H193" t="s">
+      <c r="I193" t="s">
         <v>37</v>
       </c>
-      <c r="I193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>409</v>
       </c>
@@ -9378,17 +10157,21 @@
       <c r="F194" t="s">
         <v>9</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="3">
+        <f t="shared" si="2"/>
+        <v>1.64E-4</v>
+      </c>
+      <c r="H194" t="s">
         <v>410</v>
       </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
         <v>42</v>
       </c>
-      <c r="I194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>411</v>
       </c>
@@ -9407,17 +10190,21 @@
       <c r="F195" t="s">
         <v>9</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="3">
+        <f t="shared" ref="G195:G258" si="3">E195/1000000</f>
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="H195" t="s">
         <v>412</v>
       </c>
-      <c r="H195" t="s">
+      <c r="I195" t="s">
         <v>42</v>
       </c>
-      <c r="I195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>413</v>
       </c>
@@ -9436,17 +10223,21 @@
       <c r="F196" t="s">
         <v>9</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="H196" t="s">
         <v>414</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>37</v>
       </c>
-      <c r="I196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>415</v>
       </c>
@@ -9465,17 +10256,21 @@
       <c r="F197" t="s">
         <v>9</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H197" t="s">
         <v>416</v>
       </c>
-      <c r="H197" t="s">
+      <c r="I197" t="s">
         <v>186</v>
       </c>
-      <c r="I197" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>417</v>
       </c>
@@ -9494,17 +10289,21 @@
       <c r="F198" t="s">
         <v>9</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H198" t="s">
         <v>418</v>
       </c>
-      <c r="H198" t="s">
+      <c r="I198" t="s">
         <v>42</v>
       </c>
-      <c r="I198" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>419</v>
       </c>
@@ -9523,17 +10322,21 @@
       <c r="F199" t="s">
         <v>9</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H199" t="s">
         <v>420</v>
       </c>
-      <c r="H199" t="s">
+      <c r="I199" t="s">
         <v>37</v>
       </c>
-      <c r="I199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>421</v>
       </c>
@@ -9552,17 +10355,21 @@
       <c r="F200" t="s">
         <v>9</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H200" t="s">
         <v>422</v>
       </c>
-      <c r="H200" t="s">
+      <c r="I200" t="s">
         <v>34</v>
       </c>
-      <c r="I200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>423</v>
       </c>
@@ -9581,17 +10388,21 @@
       <c r="F201" t="s">
         <v>9</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="3">
+        <f t="shared" si="3"/>
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="H201" t="s">
         <v>424</v>
       </c>
-      <c r="H201" t="s">
+      <c r="I201" t="s">
         <v>42</v>
       </c>
-      <c r="I201" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>425</v>
       </c>
@@ -9610,17 +10421,21 @@
       <c r="F202" t="s">
         <v>9</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H202" t="s">
         <v>352</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
         <v>47</v>
       </c>
-      <c r="I202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>426</v>
       </c>
@@ -9639,17 +10454,21 @@
       <c r="F203" t="s">
         <v>9</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H203" t="s">
         <v>427</v>
       </c>
-      <c r="H203" t="s">
+      <c r="I203" t="s">
         <v>34</v>
       </c>
-      <c r="I203" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>428</v>
       </c>
@@ -9668,17 +10487,21 @@
       <c r="F204" t="s">
         <v>9</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H204" t="s">
         <v>429</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I204" t="s">
         <v>42</v>
       </c>
-      <c r="I204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J204" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>430</v>
       </c>
@@ -9697,17 +10520,21 @@
       <c r="F205" t="s">
         <v>9</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H205" t="s">
         <v>431</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>37</v>
       </c>
-      <c r="I205" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>432</v>
       </c>
@@ -9726,17 +10553,21 @@
       <c r="F206" t="s">
         <v>9</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H206" t="s">
         <v>433</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I206" t="s">
         <v>42</v>
       </c>
-      <c r="I206" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J206" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>434</v>
       </c>
@@ -9755,17 +10586,21 @@
       <c r="F207" t="s">
         <v>9</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H207" t="s">
         <v>435</v>
       </c>
-      <c r="H207" t="s">
+      <c r="I207" t="s">
         <v>42</v>
       </c>
-      <c r="I207" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>436</v>
       </c>
@@ -9784,17 +10619,21 @@
       <c r="F208" t="s">
         <v>9</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H208" t="s">
         <v>437</v>
       </c>
-      <c r="H208" t="s">
+      <c r="I208" t="s">
         <v>47</v>
       </c>
-      <c r="I208" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J208" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>438</v>
       </c>
@@ -9813,17 +10652,21 @@
       <c r="F209" t="s">
         <v>9</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="3">
+        <f t="shared" si="3"/>
+        <v>1.26E-4</v>
+      </c>
+      <c r="H209" t="s">
         <v>439</v>
       </c>
-      <c r="H209" t="s">
+      <c r="I209" t="s">
         <v>21</v>
       </c>
-      <c r="I209" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>440</v>
       </c>
@@ -9842,17 +10685,21 @@
       <c r="F210" t="s">
         <v>9</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="H210" t="s">
         <v>441</v>
       </c>
-      <c r="H210" t="s">
+      <c r="I210" t="s">
         <v>47</v>
       </c>
-      <c r="I210" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>442</v>
       </c>
@@ -9871,17 +10718,21 @@
       <c r="F211" t="s">
         <v>9</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="H211" t="s">
         <v>443</v>
       </c>
-      <c r="H211" t="s">
+      <c r="I211" t="s">
         <v>42</v>
       </c>
-      <c r="I211" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>444</v>
       </c>
@@ -9900,17 +10751,21 @@
       <c r="F212" t="s">
         <v>9</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="H212" t="s">
         <v>445</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>42</v>
       </c>
-      <c r="I212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>446</v>
       </c>
@@ -9929,17 +10784,21 @@
       <c r="F213" t="s">
         <v>9</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H213" t="s">
         <v>447</v>
       </c>
-      <c r="H213" t="s">
+      <c r="I213" t="s">
         <v>42</v>
       </c>
-      <c r="I213" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J213" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>448</v>
       </c>
@@ -9958,17 +10817,21 @@
       <c r="F214" t="s">
         <v>9</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H214" t="s">
         <v>449</v>
       </c>
-      <c r="H214" t="s">
+      <c r="I214" t="s">
         <v>42</v>
       </c>
-      <c r="I214" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>450</v>
       </c>
@@ -9987,17 +10850,21 @@
       <c r="F215" t="s">
         <v>9</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H215" t="s">
         <v>451</v>
       </c>
-      <c r="H215" t="s">
+      <c r="I215" t="s">
         <v>37</v>
       </c>
-      <c r="I215" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J215" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>452</v>
       </c>
@@ -10016,17 +10883,21 @@
       <c r="F216" t="s">
         <v>9</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H216" t="s">
         <v>453</v>
       </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>47</v>
       </c>
-      <c r="I216" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J216" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>454</v>
       </c>
@@ -10045,17 +10916,21 @@
       <c r="F217" t="s">
         <v>9</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H217" t="s">
         <v>455</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>42</v>
       </c>
-      <c r="I217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>456</v>
       </c>
@@ -10074,17 +10949,21 @@
       <c r="F218" t="s">
         <v>9</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H218" t="s">
         <v>457</v>
       </c>
-      <c r="H218" t="s">
+      <c r="I218" t="s">
         <v>37</v>
       </c>
-      <c r="I218" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>458</v>
       </c>
@@ -10103,17 +10982,21 @@
       <c r="F219" t="s">
         <v>9</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="3">
+        <f t="shared" si="3"/>
+        <v>1.01E-4</v>
+      </c>
+      <c r="H219" t="s">
         <v>459</v>
       </c>
-      <c r="H219" t="s">
+      <c r="I219" t="s">
         <v>42</v>
       </c>
-      <c r="I219" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>460</v>
       </c>
@@ -10132,17 +11015,21 @@
       <c r="F220" t="s">
         <v>9</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H220" t="s">
         <v>461</v>
       </c>
-      <c r="H220" t="s">
+      <c r="I220" t="s">
         <v>37</v>
       </c>
-      <c r="I220" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>462</v>
       </c>
@@ -10161,17 +11048,21 @@
       <c r="F221" t="s">
         <v>9</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H221" t="s">
         <v>463</v>
       </c>
-      <c r="H221" t="s">
+      <c r="I221" t="s">
         <v>47</v>
       </c>
-      <c r="I221" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>464</v>
       </c>
@@ -10190,17 +11081,21 @@
       <c r="F222" t="s">
         <v>9</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H222" t="s">
         <v>465</v>
       </c>
-      <c r="H222" t="s">
+      <c r="I222" t="s">
         <v>42</v>
       </c>
-      <c r="I222" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>466</v>
       </c>
@@ -10219,17 +11114,21 @@
       <c r="F223" t="s">
         <v>9</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H223" t="s">
         <v>467</v>
       </c>
-      <c r="H223" t="s">
+      <c r="I223" t="s">
         <v>21</v>
       </c>
-      <c r="I223" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>468</v>
       </c>
@@ -10248,17 +11147,21 @@
       <c r="F224" t="s">
         <v>9</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H224" t="s">
         <v>469</v>
       </c>
-      <c r="H224" t="s">
+      <c r="I224" t="s">
         <v>18</v>
       </c>
-      <c r="I224" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>470</v>
       </c>
@@ -10277,17 +11180,21 @@
       <c r="F225" t="s">
         <v>9</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H225" t="s">
         <v>471</v>
       </c>
-      <c r="H225" t="s">
+      <c r="I225" t="s">
         <v>42</v>
       </c>
-      <c r="I225" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>472</v>
       </c>
@@ -10306,17 +11213,21 @@
       <c r="F226" t="s">
         <v>9</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H226" t="s">
         <v>473</v>
       </c>
-      <c r="H226" t="s">
+      <c r="I226" t="s">
         <v>14</v>
       </c>
-      <c r="I226" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>474</v>
       </c>
@@ -10335,17 +11246,21 @@
       <c r="F227" t="s">
         <v>9</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H227" t="s">
         <v>475</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
         <v>34</v>
       </c>
-      <c r="I227" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>476</v>
       </c>
@@ -10364,17 +11279,21 @@
       <c r="F228" t="s">
         <v>9</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H228" t="s">
         <v>477</v>
       </c>
-      <c r="H228" t="s">
+      <c r="I228" t="s">
         <v>37</v>
       </c>
-      <c r="I228" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>478</v>
       </c>
@@ -10393,17 +11312,21 @@
       <c r="F229" t="s">
         <v>9</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H229" t="s">
         <v>479</v>
       </c>
-      <c r="H229" t="s">
+      <c r="I229" t="s">
         <v>42</v>
       </c>
-      <c r="I229" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>480</v>
       </c>
@@ -10422,17 +11345,21 @@
       <c r="F230" t="s">
         <v>9</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="3">
+        <f t="shared" si="3"/>
+        <v>8.7999999999999998E-5</v>
+      </c>
+      <c r="H230" t="s">
         <v>481</v>
       </c>
-      <c r="H230" t="s">
+      <c r="I230" t="s">
         <v>42</v>
       </c>
-      <c r="I230" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>482</v>
       </c>
@@ -10451,17 +11378,21 @@
       <c r="F231" t="s">
         <v>9</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H231" t="s">
         <v>483</v>
       </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
         <v>37</v>
       </c>
-      <c r="I231" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>484</v>
       </c>
@@ -10480,17 +11411,21 @@
       <c r="F232" t="s">
         <v>9</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H232" t="s">
         <v>485</v>
       </c>
-      <c r="H232" t="s">
+      <c r="I232" t="s">
         <v>42</v>
       </c>
-      <c r="I232" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>486</v>
       </c>
@@ -10509,17 +11444,21 @@
       <c r="F233" t="s">
         <v>9</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H233" t="s">
         <v>487</v>
       </c>
-      <c r="H233" t="s">
+      <c r="I233" t="s">
         <v>21</v>
       </c>
-      <c r="I233" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>488</v>
       </c>
@@ -10538,17 +11477,21 @@
       <c r="F234" t="s">
         <v>9</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H234" t="s">
         <v>489</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
         <v>37</v>
       </c>
-      <c r="I234" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>490</v>
       </c>
@@ -10567,17 +11510,21 @@
       <c r="F235" t="s">
         <v>9</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H235" t="s">
         <v>491</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>37</v>
       </c>
-      <c r="I235" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>492</v>
       </c>
@@ -10596,17 +11543,21 @@
       <c r="F236" t="s">
         <v>9</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H236" t="s">
         <v>493</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>18</v>
       </c>
-      <c r="I236" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>494</v>
       </c>
@@ -10625,17 +11576,21 @@
       <c r="F237" t="s">
         <v>9</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H237" t="s">
         <v>495</v>
       </c>
-      <c r="H237" t="s">
+      <c r="I237" t="s">
         <v>186</v>
       </c>
-      <c r="I237" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>496</v>
       </c>
@@ -10654,17 +11609,21 @@
       <c r="F238" t="s">
         <v>9</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H238" t="s">
         <v>497</v>
       </c>
-      <c r="H238" t="s">
+      <c r="I238" t="s">
         <v>34</v>
       </c>
-      <c r="I238" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>498</v>
       </c>
@@ -10683,17 +11642,21 @@
       <c r="F239" t="s">
         <v>9</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H239" t="s">
         <v>499</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>47</v>
       </c>
-      <c r="I239" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>500</v>
       </c>
@@ -10712,17 +11675,21 @@
       <c r="F240" t="s">
         <v>9</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H240" t="s">
         <v>501</v>
       </c>
-      <c r="H240" t="s">
+      <c r="I240" t="s">
         <v>34</v>
       </c>
-      <c r="I240" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>502</v>
       </c>
@@ -10741,17 +11708,21 @@
       <c r="F241" t="s">
         <v>9</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H241" t="s">
         <v>503</v>
       </c>
-      <c r="H241" t="s">
+      <c r="I241" t="s">
         <v>37</v>
       </c>
-      <c r="I241" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>504</v>
       </c>
@@ -10770,17 +11741,21 @@
       <c r="F242" t="s">
         <v>9</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H242" t="s">
         <v>505</v>
       </c>
-      <c r="H242" t="s">
+      <c r="I242" t="s">
         <v>64</v>
       </c>
-      <c r="I242" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>506</v>
       </c>
@@ -10799,17 +11774,21 @@
       <c r="F243" t="s">
         <v>9</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6000000000000004E-5</v>
+      </c>
+      <c r="H243" t="s">
         <v>507</v>
       </c>
-      <c r="H243" t="s">
+      <c r="I243" t="s">
         <v>42</v>
       </c>
-      <c r="I243" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>508</v>
       </c>
@@ -10828,17 +11807,21 @@
       <c r="F244" t="s">
         <v>9</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="3">
+        <f t="shared" si="3"/>
+        <v>6.3E-5</v>
+      </c>
+      <c r="H244" t="s">
         <v>509</v>
       </c>
-      <c r="H244" t="s">
+      <c r="I244" t="s">
         <v>37</v>
       </c>
-      <c r="I244" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>510</v>
       </c>
@@ -10857,17 +11840,21 @@
       <c r="F245" t="s">
         <v>9</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H245" t="s">
         <v>511</v>
       </c>
-      <c r="H245" t="s">
+      <c r="I245" t="s">
         <v>34</v>
       </c>
-      <c r="I245" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>512</v>
       </c>
@@ -10886,17 +11873,21 @@
       <c r="F246" t="s">
         <v>9</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H246" t="s">
         <v>513</v>
       </c>
-      <c r="H246" t="s">
+      <c r="I246" t="s">
         <v>37</v>
       </c>
-      <c r="I246" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>514</v>
       </c>
@@ -10915,17 +11906,21 @@
       <c r="F247" t="s">
         <v>9</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H247" t="s">
         <v>515</v>
       </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
         <v>37</v>
       </c>
-      <c r="I247" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>516</v>
       </c>
@@ -10944,17 +11939,21 @@
       <c r="F248" t="s">
         <v>9</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H248" t="s">
         <v>517</v>
       </c>
-      <c r="H248" t="s">
+      <c r="I248" t="s">
         <v>21</v>
       </c>
-      <c r="I248" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>518</v>
       </c>
@@ -10973,17 +11972,21 @@
       <c r="F249" t="s">
         <v>9</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H249" t="s">
         <v>519</v>
       </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
         <v>42</v>
       </c>
-      <c r="I249" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>520</v>
       </c>
@@ -11002,17 +12005,21 @@
       <c r="F250" t="s">
         <v>9</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H250" t="s">
         <v>521</v>
       </c>
-      <c r="H250" t="s">
+      <c r="I250" t="s">
         <v>42</v>
       </c>
-      <c r="I250" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>522</v>
       </c>
@@ -11031,17 +12038,21 @@
       <c r="F251" t="s">
         <v>9</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H251" t="s">
         <v>523</v>
       </c>
-      <c r="H251" t="s">
+      <c r="I251" t="s">
         <v>42</v>
       </c>
-      <c r="I251" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>524</v>
       </c>
@@ -11060,17 +12071,21 @@
       <c r="F252" t="s">
         <v>9</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H252" t="s">
         <v>525</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
         <v>42</v>
       </c>
-      <c r="I252" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>526</v>
       </c>
@@ -11089,17 +12104,21 @@
       <c r="F253" t="s">
         <v>9</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H253" t="s">
         <v>527</v>
       </c>
-      <c r="H253" t="s">
+      <c r="I253" t="s">
         <v>37</v>
       </c>
-      <c r="I253" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>528</v>
       </c>
@@ -11118,17 +12137,21 @@
       <c r="F254" t="s">
         <v>9</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H254" t="s">
         <v>529</v>
       </c>
-      <c r="H254" t="s">
+      <c r="I254" t="s">
         <v>42</v>
       </c>
-      <c r="I254" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>530</v>
       </c>
@@ -11147,17 +12170,21 @@
       <c r="F255" t="s">
         <v>9</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H255" t="s">
         <v>531</v>
       </c>
-      <c r="H255" t="s">
+      <c r="I255" t="s">
         <v>47</v>
       </c>
-      <c r="I255" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>532</v>
       </c>
@@ -11176,17 +12203,21 @@
       <c r="F256" t="s">
         <v>9</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H256" t="s">
         <v>533</v>
       </c>
-      <c r="H256" t="s">
+      <c r="I256" t="s">
         <v>42</v>
       </c>
-      <c r="I256" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>534</v>
       </c>
@@ -11205,17 +12236,21 @@
       <c r="F257" t="s">
         <v>9</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H257" t="s">
         <v>535</v>
       </c>
-      <c r="H257" t="s">
+      <c r="I257" t="s">
         <v>42</v>
       </c>
-      <c r="I257" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>536</v>
       </c>
@@ -11234,17 +12269,21 @@
       <c r="F258" t="s">
         <v>9</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H258" t="s">
         <v>537</v>
       </c>
-      <c r="H258" t="s">
+      <c r="I258" t="s">
         <v>42</v>
       </c>
-      <c r="I258" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J258" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>538</v>
       </c>
@@ -11263,17 +12302,21 @@
       <c r="F259" t="s">
         <v>9</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="3">
+        <f t="shared" ref="G259:G322" si="4">E259/1000000</f>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H259" t="s">
         <v>539</v>
       </c>
-      <c r="H259" t="s">
+      <c r="I259" t="s">
         <v>21</v>
       </c>
-      <c r="I259" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>540</v>
       </c>
@@ -11292,17 +12335,21 @@
       <c r="F260" t="s">
         <v>9</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H260" t="s">
         <v>541</v>
       </c>
-      <c r="H260" t="s">
+      <c r="I260" t="s">
         <v>37</v>
       </c>
-      <c r="I260" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>542</v>
       </c>
@@ -11321,17 +12368,21 @@
       <c r="F261" t="s">
         <v>9</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H261" t="s">
         <v>543</v>
       </c>
-      <c r="H261" t="s">
+      <c r="I261" t="s">
         <v>34</v>
       </c>
-      <c r="I261" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>544</v>
       </c>
@@ -11350,17 +12401,21 @@
       <c r="F262" t="s">
         <v>9</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="H262" t="s">
         <v>545</v>
       </c>
-      <c r="H262" t="s">
+      <c r="I262" t="s">
         <v>37</v>
       </c>
-      <c r="I262" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>546</v>
       </c>
@@ -11379,17 +12434,21 @@
       <c r="F263" t="s">
         <v>9</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H263" t="s">
         <v>547</v>
       </c>
-      <c r="H263" t="s">
+      <c r="I263" t="s">
         <v>34</v>
       </c>
-      <c r="I263" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>548</v>
       </c>
@@ -11408,17 +12467,21 @@
       <c r="F264" t="s">
         <v>9</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H264" t="s">
         <v>549</v>
       </c>
-      <c r="H264" t="s">
+      <c r="I264" t="s">
         <v>37</v>
       </c>
-      <c r="I264" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>550</v>
       </c>
@@ -11437,17 +12500,21 @@
       <c r="F265" t="s">
         <v>9</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H265" t="s">
         <v>551</v>
       </c>
-      <c r="H265" t="s">
+      <c r="I265" t="s">
         <v>21</v>
       </c>
-      <c r="I265" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>552</v>
       </c>
@@ -11466,17 +12533,21 @@
       <c r="F266" t="s">
         <v>9</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H266" t="s">
         <v>553</v>
       </c>
-      <c r="H266" t="s">
+      <c r="I266" t="s">
         <v>42</v>
       </c>
-      <c r="I266" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>554</v>
       </c>
@@ -11495,17 +12566,21 @@
       <c r="F267" t="s">
         <v>9</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H267" t="s">
         <v>555</v>
       </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
         <v>21</v>
       </c>
-      <c r="I267" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>556</v>
       </c>
@@ -11524,17 +12599,21 @@
       <c r="F268" t="s">
         <v>9</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H268" t="s">
         <v>557</v>
       </c>
-      <c r="H268" t="s">
+      <c r="I268" t="s">
         <v>47</v>
       </c>
-      <c r="I268" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>558</v>
       </c>
@@ -11553,17 +12632,21 @@
       <c r="F269" t="s">
         <v>9</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H269" t="s">
         <v>559</v>
       </c>
-      <c r="H269" t="s">
+      <c r="I269" t="s">
         <v>42</v>
       </c>
-      <c r="I269" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>560</v>
       </c>
@@ -11582,17 +12665,21 @@
       <c r="F270" t="s">
         <v>9</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H270" t="s">
         <v>561</v>
       </c>
-      <c r="H270" t="s">
+      <c r="I270" t="s">
         <v>37</v>
       </c>
-      <c r="I270" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>562</v>
       </c>
@@ -11611,17 +12698,21 @@
       <c r="F271" t="s">
         <v>9</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H271" t="s">
         <v>563</v>
       </c>
-      <c r="H271" t="s">
+      <c r="I271" t="s">
         <v>37</v>
       </c>
-      <c r="I271" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>564</v>
       </c>
@@ -11640,17 +12731,21 @@
       <c r="F272" t="s">
         <v>9</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H272" t="s">
         <v>565</v>
       </c>
-      <c r="H272" t="s">
+      <c r="I272" t="s">
         <v>42</v>
       </c>
-      <c r="I272" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>566</v>
       </c>
@@ -11669,17 +12764,21 @@
       <c r="F273" t="s">
         <v>9</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H273" t="s">
         <v>567</v>
       </c>
-      <c r="H273" t="s">
+      <c r="I273" t="s">
         <v>37</v>
       </c>
-      <c r="I273" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>568</v>
       </c>
@@ -11698,17 +12797,21 @@
       <c r="F274" t="s">
         <v>9</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H274" t="s">
         <v>569</v>
       </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>18</v>
       </c>
-      <c r="I274" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J274" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>570</v>
       </c>
@@ -11727,17 +12830,21 @@
       <c r="F275" t="s">
         <v>9</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H275" t="s">
         <v>571</v>
       </c>
-      <c r="H275" t="s">
+      <c r="I275" t="s">
         <v>18</v>
       </c>
-      <c r="I275" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>572</v>
       </c>
@@ -11756,17 +12863,21 @@
       <c r="F276" t="s">
         <v>9</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H276" t="s">
         <v>573</v>
       </c>
-      <c r="H276" t="s">
+      <c r="I276" t="s">
         <v>14</v>
       </c>
-      <c r="I276" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>574</v>
       </c>
@@ -11785,17 +12896,21 @@
       <c r="F277" t="s">
         <v>9</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="H277" t="s">
         <v>575</v>
       </c>
-      <c r="H277" t="s">
+      <c r="I277" t="s">
         <v>18</v>
       </c>
-      <c r="I277" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>576</v>
       </c>
@@ -11814,17 +12929,21 @@
       <c r="F278" t="s">
         <v>9</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H278" t="s">
         <v>577</v>
       </c>
-      <c r="H278" t="s">
+      <c r="I278" t="s">
         <v>47</v>
       </c>
-      <c r="I278" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>578</v>
       </c>
@@ -11843,17 +12962,21 @@
       <c r="F279" t="s">
         <v>9</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H279" t="s">
         <v>579</v>
       </c>
-      <c r="H279" t="s">
+      <c r="I279" t="s">
         <v>47</v>
       </c>
-      <c r="I279" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>580</v>
       </c>
@@ -11872,17 +12995,21 @@
       <c r="F280" t="s">
         <v>9</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H280" t="s">
         <v>581</v>
       </c>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
         <v>42</v>
       </c>
-      <c r="I280" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>582</v>
       </c>
@@ -11901,17 +13028,21 @@
       <c r="F281" t="s">
         <v>9</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H281" t="s">
         <v>583</v>
       </c>
-      <c r="H281" t="s">
+      <c r="I281" t="s">
         <v>47</v>
       </c>
-      <c r="I281" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>584</v>
       </c>
@@ -11930,17 +13061,21 @@
       <c r="F282" t="s">
         <v>9</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H282" t="s">
         <v>585</v>
       </c>
-      <c r="H282" t="s">
+      <c r="I282" t="s">
         <v>42</v>
       </c>
-      <c r="I282" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>586</v>
       </c>
@@ -11959,17 +13094,21 @@
       <c r="F283" t="s">
         <v>9</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H283" t="s">
         <v>587</v>
       </c>
-      <c r="H283" t="s">
+      <c r="I283" t="s">
         <v>42</v>
       </c>
-      <c r="I283" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>588</v>
       </c>
@@ -11988,17 +13127,21 @@
       <c r="F284" t="s">
         <v>9</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H284" t="s">
         <v>589</v>
       </c>
-      <c r="H284" t="s">
+      <c r="I284" t="s">
         <v>47</v>
       </c>
-      <c r="I284" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>590</v>
       </c>
@@ -12017,17 +13160,21 @@
       <c r="F285" t="s">
         <v>9</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H285" t="s">
         <v>352</v>
       </c>
-      <c r="H285" t="s">
+      <c r="I285" t="s">
         <v>47</v>
       </c>
-      <c r="I285" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J285" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>591</v>
       </c>
@@ -12046,17 +13193,21 @@
       <c r="F286" t="s">
         <v>9</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H286" t="s">
         <v>592</v>
       </c>
-      <c r="H286" t="s">
+      <c r="I286" t="s">
         <v>42</v>
       </c>
-      <c r="I286" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>593</v>
       </c>
@@ -12075,17 +13226,21 @@
       <c r="F287" t="s">
         <v>9</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H287" t="s">
         <v>594</v>
       </c>
-      <c r="H287" t="s">
+      <c r="I287" t="s">
         <v>42</v>
       </c>
-      <c r="I287" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>595</v>
       </c>
@@ -12104,17 +13259,21 @@
       <c r="F288" t="s">
         <v>9</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H288" t="s">
         <v>596</v>
       </c>
-      <c r="H288" t="s">
+      <c r="I288" t="s">
         <v>47</v>
       </c>
-      <c r="I288" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>597</v>
       </c>
@@ -12133,17 +13292,21 @@
       <c r="F289" t="s">
         <v>9</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H289" t="s">
         <v>598</v>
       </c>
-      <c r="H289" t="s">
+      <c r="I289" t="s">
         <v>47</v>
       </c>
-      <c r="I289" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J289" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>599</v>
       </c>
@@ -12162,17 +13325,21 @@
       <c r="F290" t="s">
         <v>9</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H290" t="s">
         <v>600</v>
       </c>
-      <c r="H290" t="s">
+      <c r="I290" t="s">
         <v>21</v>
       </c>
-      <c r="I290" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>601</v>
       </c>
@@ -12191,17 +13358,21 @@
       <c r="F291" t="s">
         <v>9</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H291" t="s">
         <v>602</v>
       </c>
-      <c r="H291" t="s">
+      <c r="I291" t="s">
         <v>42</v>
       </c>
-      <c r="I291" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>603</v>
       </c>
@@ -12220,17 +13391,21 @@
       <c r="F292" t="s">
         <v>9</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H292" t="s">
         <v>604</v>
       </c>
-      <c r="H292" t="s">
+      <c r="I292" t="s">
         <v>42</v>
       </c>
-      <c r="I292" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>605</v>
       </c>
@@ -12249,17 +13424,21 @@
       <c r="F293" t="s">
         <v>9</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H293" t="s">
         <v>606</v>
       </c>
-      <c r="H293" t="s">
+      <c r="I293" t="s">
         <v>47</v>
       </c>
-      <c r="I293" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>607</v>
       </c>
@@ -12278,17 +13457,21 @@
       <c r="F294" t="s">
         <v>9</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H294" t="s">
         <v>608</v>
       </c>
-      <c r="H294" t="s">
+      <c r="I294" t="s">
         <v>37</v>
       </c>
-      <c r="I294" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>609</v>
       </c>
@@ -12307,17 +13490,21 @@
       <c r="F295" t="s">
         <v>9</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H295" t="s">
         <v>610</v>
       </c>
-      <c r="H295" t="s">
+      <c r="I295" t="s">
         <v>42</v>
       </c>
-      <c r="I295" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>611</v>
       </c>
@@ -12336,17 +13523,21 @@
       <c r="F296" t="s">
         <v>9</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H296" t="s">
         <v>612</v>
       </c>
-      <c r="H296" t="s">
+      <c r="I296" t="s">
         <v>42</v>
       </c>
-      <c r="I296" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>613</v>
       </c>
@@ -12365,17 +13556,21 @@
       <c r="F297" t="s">
         <v>9</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H297" t="s">
         <v>614</v>
       </c>
-      <c r="H297" t="s">
+      <c r="I297" t="s">
         <v>34</v>
       </c>
-      <c r="I297" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>615</v>
       </c>
@@ -12394,17 +13589,21 @@
       <c r="F298" t="s">
         <v>9</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H298" t="s">
         <v>616</v>
       </c>
-      <c r="H298" t="s">
+      <c r="I298" t="s">
         <v>14</v>
       </c>
-      <c r="I298" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>617</v>
       </c>
@@ -12423,17 +13622,21 @@
       <c r="F299" t="s">
         <v>9</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H299" t="s">
         <v>618</v>
       </c>
-      <c r="H299" t="s">
+      <c r="I299" t="s">
         <v>42</v>
       </c>
-      <c r="I299" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>619</v>
       </c>
@@ -12452,17 +13655,21 @@
       <c r="F300" t="s">
         <v>9</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H300" t="s">
         <v>620</v>
       </c>
-      <c r="H300" t="s">
+      <c r="I300" t="s">
         <v>34</v>
       </c>
-      <c r="I300" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>621</v>
       </c>
@@ -12481,17 +13688,21 @@
       <c r="F301" t="s">
         <v>9</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H301" t="s">
         <v>622</v>
       </c>
-      <c r="H301" t="s">
+      <c r="I301" t="s">
         <v>47</v>
       </c>
-      <c r="I301" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>623</v>
       </c>
@@ -12510,17 +13721,21 @@
       <c r="F302" t="s">
         <v>9</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H302" t="s">
         <v>624</v>
       </c>
-      <c r="H302" t="s">
+      <c r="I302" t="s">
         <v>37</v>
       </c>
-      <c r="I302" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>625</v>
       </c>
@@ -12539,17 +13754,21 @@
       <c r="F303" t="s">
         <v>9</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H303" t="s">
         <v>626</v>
       </c>
-      <c r="H303" t="s">
+      <c r="I303" t="s">
         <v>34</v>
       </c>
-      <c r="I303" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>627</v>
       </c>
@@ -12568,17 +13787,21 @@
       <c r="F304" t="s">
         <v>9</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H304" t="s">
         <v>628</v>
       </c>
-      <c r="H304" t="s">
+      <c r="I304" t="s">
         <v>37</v>
       </c>
-      <c r="I304" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>629</v>
       </c>
@@ -12597,17 +13820,21 @@
       <c r="F305" t="s">
         <v>9</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H305" t="s">
         <v>630</v>
       </c>
-      <c r="H305" t="s">
+      <c r="I305" t="s">
         <v>34</v>
       </c>
-      <c r="I305" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>631</v>
       </c>
@@ -12626,17 +13853,21 @@
       <c r="F306" t="s">
         <v>9</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H306" t="s">
         <v>352</v>
       </c>
-      <c r="H306" t="s">
+      <c r="I306" t="s">
         <v>47</v>
       </c>
-      <c r="I306" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>632</v>
       </c>
@@ -12655,17 +13886,21 @@
       <c r="F307" t="s">
         <v>9</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H307" t="s">
         <v>633</v>
       </c>
-      <c r="H307" t="s">
+      <c r="I307" t="s">
         <v>37</v>
       </c>
-      <c r="I307" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>634</v>
       </c>
@@ -12684,17 +13919,21 @@
       <c r="F308" t="s">
         <v>9</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H308" t="s">
         <v>635</v>
       </c>
-      <c r="H308" t="s">
+      <c r="I308" t="s">
         <v>34</v>
       </c>
-      <c r="I308" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>636</v>
       </c>
@@ -12713,17 +13952,21 @@
       <c r="F309" t="s">
         <v>9</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H309" t="s">
         <v>637</v>
       </c>
-      <c r="H309" t="s">
+      <c r="I309" t="s">
         <v>21</v>
       </c>
-      <c r="I309" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>638</v>
       </c>
@@ -12742,17 +13985,21 @@
       <c r="F310" t="s">
         <v>9</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H310" t="s">
         <v>639</v>
       </c>
-      <c r="H310" t="s">
+      <c r="I310" t="s">
         <v>37</v>
       </c>
-      <c r="I310" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>640</v>
       </c>
@@ -12771,17 +14018,21 @@
       <c r="F311" t="s">
         <v>9</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H311" t="s">
         <v>641</v>
       </c>
-      <c r="H311" t="s">
+      <c r="I311" t="s">
         <v>42</v>
       </c>
-      <c r="I311" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>642</v>
       </c>
@@ -12800,17 +14051,21 @@
       <c r="F312" t="s">
         <v>9</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H312" t="s">
         <v>643</v>
       </c>
-      <c r="H312" t="s">
+      <c r="I312" t="s">
         <v>42</v>
       </c>
-      <c r="I312" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>644</v>
       </c>
@@ -12829,17 +14084,21 @@
       <c r="F313" t="s">
         <v>9</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H313" t="s">
         <v>645</v>
       </c>
-      <c r="H313" t="s">
+      <c r="I313" t="s">
         <v>42</v>
       </c>
-      <c r="I313" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>646</v>
       </c>
@@ -12858,17 +14117,21 @@
       <c r="F314" t="s">
         <v>9</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H314" t="s">
         <v>647</v>
       </c>
-      <c r="H314" t="s">
+      <c r="I314" t="s">
         <v>42</v>
       </c>
-      <c r="I314" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>648</v>
       </c>
@@ -12887,17 +14150,21 @@
       <c r="F315" t="s">
         <v>9</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H315" t="s">
         <v>649</v>
       </c>
-      <c r="H315" t="s">
+      <c r="I315" t="s">
         <v>42</v>
       </c>
-      <c r="I315" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>650</v>
       </c>
@@ -12916,17 +14183,21 @@
       <c r="F316" t="s">
         <v>9</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H316" t="s">
         <v>651</v>
       </c>
-      <c r="H316" t="s">
+      <c r="I316" t="s">
         <v>37</v>
       </c>
-      <c r="I316" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>652</v>
       </c>
@@ -12945,17 +14216,21 @@
       <c r="F317" t="s">
         <v>9</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H317" t="s">
         <v>653</v>
       </c>
-      <c r="H317" t="s">
+      <c r="I317" t="s">
         <v>42</v>
       </c>
-      <c r="I317" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>654</v>
       </c>
@@ -12974,17 +14249,21 @@
       <c r="F318" t="s">
         <v>9</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H318" t="s">
         <v>655</v>
       </c>
-      <c r="H318" t="s">
+      <c r="I318" t="s">
         <v>21</v>
       </c>
-      <c r="I318" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>656</v>
       </c>
@@ -13003,17 +14282,21 @@
       <c r="F319" t="s">
         <v>9</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H319" t="s">
         <v>657</v>
       </c>
-      <c r="H319" t="s">
+      <c r="I319" t="s">
         <v>34</v>
       </c>
-      <c r="I319" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>658</v>
       </c>
@@ -13032,17 +14315,21 @@
       <c r="F320" t="s">
         <v>9</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H320" t="s">
         <v>659</v>
       </c>
-      <c r="H320" t="s">
+      <c r="I320" t="s">
         <v>37</v>
       </c>
-      <c r="I320" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>660</v>
       </c>
@@ -13061,17 +14348,21 @@
       <c r="F321" t="s">
         <v>9</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H321" t="s">
         <v>661</v>
       </c>
-      <c r="H321" t="s">
+      <c r="I321" t="s">
         <v>42</v>
       </c>
-      <c r="I321" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>662</v>
       </c>
@@ -13090,17 +14381,21 @@
       <c r="F322" t="s">
         <v>9</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H322" t="s">
         <v>663</v>
       </c>
-      <c r="H322" t="s">
+      <c r="I322" t="s">
         <v>42</v>
       </c>
-      <c r="I322" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>664</v>
       </c>
@@ -13119,21 +14414,25 @@
       <c r="F323" t="s">
         <v>9</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="3">
+        <f t="shared" ref="G323" si="5">E323/1000000</f>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H323" t="s">
         <v>665</v>
       </c>
-      <c r="H323" t="s">
+      <c r="I323" t="s">
         <v>42</v>
       </c>
-      <c r="I323" t="s">
+      <c r="J323" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I323">
-    <filterColumn colId="7">
+  <autoFilter ref="A1:J323">
+    <filterColumn colId="8">
       <filters>
-        <filter val="phylum"/>
+        <filter val="genus"/>
       </filters>
     </filterColumn>
   </autoFilter>
